--- a/data/pca/factorExposure/factorExposure_2017-08-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02383856565794748</v>
+        <v>-0.007765205105531398</v>
       </c>
       <c r="C2">
-        <v>0.0008414188381585263</v>
+        <v>-0.04251457650887033</v>
       </c>
       <c r="D2">
-        <v>0.01949937101822874</v>
+        <v>0.02996640559738686</v>
       </c>
       <c r="E2">
-        <v>0.009793910489073384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03348805964804125</v>
+      </c>
+      <c r="F2">
+        <v>0.01497517379585247</v>
+      </c>
+      <c r="G2">
+        <v>-0.04730549691261755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0159170470776691</v>
+        <v>-0.05778944742151232</v>
       </c>
       <c r="C3">
-        <v>0.05418149910101269</v>
+        <v>-0.06764285448475284</v>
       </c>
       <c r="D3">
-        <v>0.01020753763654538</v>
+        <v>0.01467014266941056</v>
       </c>
       <c r="E3">
-        <v>0.003791190783255548</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09762413348871296</v>
+      </c>
+      <c r="F3">
+        <v>0.03733228852797438</v>
+      </c>
+      <c r="G3">
+        <v>-0.1058048889711528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02333065976688685</v>
+        <v>-0.05717053400943869</v>
       </c>
       <c r="C4">
-        <v>0.01918254934889917</v>
+        <v>-0.06223819447678397</v>
       </c>
       <c r="D4">
-        <v>0.06368447076740562</v>
+        <v>0.02347997014916697</v>
       </c>
       <c r="E4">
-        <v>-0.01585413286062065</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01843173081288307</v>
+      </c>
+      <c r="F4">
+        <v>0.006936784269263735</v>
+      </c>
+      <c r="G4">
+        <v>-0.05986336119195577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01495118171743333</v>
+        <v>-0.03925319166786027</v>
       </c>
       <c r="C6">
-        <v>0.009748703890758827</v>
+        <v>-0.04966989554745016</v>
       </c>
       <c r="D6">
-        <v>0.08815252465953066</v>
+        <v>0.01565088617256043</v>
       </c>
       <c r="E6">
-        <v>-0.008335938734911022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01746895621472953</v>
+      </c>
+      <c r="F6">
+        <v>0.01336056912450904</v>
+      </c>
+      <c r="G6">
+        <v>-0.03579961548676715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01069825476311743</v>
+        <v>-0.01776345225886332</v>
       </c>
       <c r="C7">
-        <v>0.004963936738108964</v>
+        <v>-0.03656276505739318</v>
       </c>
       <c r="D7">
-        <v>0.03034156815142437</v>
+        <v>0.01329710061427884</v>
       </c>
       <c r="E7">
-        <v>-0.07594459449768504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.008505813370838876</v>
+      </c>
+      <c r="F7">
+        <v>0.00168761745035716</v>
+      </c>
+      <c r="G7">
+        <v>-0.1024044443102146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-5.280774348328139e-05</v>
+        <v>0.0001276965720461174</v>
       </c>
       <c r="C8">
-        <v>0.0007236034636746263</v>
+        <v>-0.02015529241398123</v>
       </c>
       <c r="D8">
-        <v>0.005801089342211188</v>
+        <v>0.003851212722496984</v>
       </c>
       <c r="E8">
-        <v>-0.006908956284857844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0230769912796071</v>
+      </c>
+      <c r="F8">
+        <v>0.01869584726230868</v>
+      </c>
+      <c r="G8">
+        <v>-0.03213138467599225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01631962357994581</v>
+        <v>-0.03398498045653925</v>
       </c>
       <c r="C9">
-        <v>0.02097484037993141</v>
+        <v>-0.04392090098133892</v>
       </c>
       <c r="D9">
-        <v>0.04851947599891056</v>
+        <v>0.01619644158111666</v>
       </c>
       <c r="E9">
-        <v>-0.005997768614492155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01324947146171273</v>
+      </c>
+      <c r="F9">
+        <v>0.0138300774809922</v>
+      </c>
+      <c r="G9">
+        <v>-0.05659339556744488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02048311920040877</v>
+        <v>-0.08896703643537236</v>
       </c>
       <c r="C10">
-        <v>0.1638768462929563</v>
+        <v>0.1853801859861604</v>
       </c>
       <c r="D10">
-        <v>-0.1135140936364549</v>
+        <v>-0.01739706811602664</v>
       </c>
       <c r="E10">
-        <v>-0.01424590468728446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.009812523344741772</v>
+      </c>
+      <c r="F10">
+        <v>-0.01750316162034037</v>
+      </c>
+      <c r="G10">
+        <v>-0.05013506057290121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0006928767298184053</v>
+        <v>-0.03351970759936247</v>
       </c>
       <c r="C11">
-        <v>0.00774616697945002</v>
+        <v>-0.0534621308534191</v>
       </c>
       <c r="D11">
-        <v>0.04173130188918257</v>
+        <v>0.002519865334172677</v>
       </c>
       <c r="E11">
-        <v>0.006265984279962266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.007759414040974514</v>
+      </c>
+      <c r="F11">
+        <v>0.02293142149847237</v>
+      </c>
+      <c r="G11">
+        <v>-0.039340454110451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.00625059230802607</v>
+        <v>-0.03300315842602861</v>
       </c>
       <c r="C12">
-        <v>0.01324366802558841</v>
+        <v>-0.04541538808939125</v>
       </c>
       <c r="D12">
-        <v>0.04512507820130379</v>
+        <v>0.006260139867983072</v>
       </c>
       <c r="E12">
-        <v>-0.003062777369595905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.001258606484111584</v>
+      </c>
+      <c r="F12">
+        <v>0.005442865469713495</v>
+      </c>
+      <c r="G12">
+        <v>-0.03950345402782232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02259322670278316</v>
+        <v>-0.01584104379425007</v>
       </c>
       <c r="C13">
-        <v>0.01601414131094488</v>
+        <v>-0.03081184100103617</v>
       </c>
       <c r="D13">
-        <v>0.01051564355621795</v>
+        <v>0.02520861247425511</v>
       </c>
       <c r="E13">
-        <v>0.009811655275866886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02426146626123831</v>
+      </c>
+      <c r="F13">
+        <v>0.01130388260248604</v>
+      </c>
+      <c r="G13">
+        <v>-0.05589782914482919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007831241524858349</v>
+        <v>-0.008992804811172771</v>
       </c>
       <c r="C14">
-        <v>0.0140017303732172</v>
+        <v>-0.02522790614041126</v>
       </c>
       <c r="D14">
-        <v>0.01326854096983483</v>
+        <v>0.008694680027085316</v>
       </c>
       <c r="E14">
-        <v>-0.01408132851910818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.004499407461309985</v>
+      </c>
+      <c r="F14">
+        <v>-0.004335657344489808</v>
+      </c>
+      <c r="G14">
+        <v>-0.05790563521215795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001496542500987265</v>
+        <v>-0.03369448448987798</v>
       </c>
       <c r="C16">
-        <v>0.01362926259264293</v>
+        <v>-0.0444900171747104</v>
       </c>
       <c r="D16">
-        <v>0.04706864841254931</v>
+        <v>0.001745225077984307</v>
       </c>
       <c r="E16">
-        <v>-0.002543617720215763</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.005466734268439138</v>
+      </c>
+      <c r="F16">
+        <v>0.007851631123337281</v>
+      </c>
+      <c r="G16">
+        <v>-0.03995560231481637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01420301644068235</v>
+        <v>-0.02449677464051658</v>
       </c>
       <c r="C19">
-        <v>0.02394917833607933</v>
+        <v>-0.04727449861201318</v>
       </c>
       <c r="D19">
-        <v>0.02094181624454932</v>
+        <v>0.01670632727250516</v>
       </c>
       <c r="E19">
-        <v>-0.006960449354619769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05504487941393994</v>
+      </c>
+      <c r="F19">
+        <v>0.02127873663114097</v>
+      </c>
+      <c r="G19">
+        <v>-0.06855225548995261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01099458903945406</v>
+        <v>-0.01366916646167118</v>
       </c>
       <c r="C20">
-        <v>0.008813982030227487</v>
+        <v>-0.03303773940055273</v>
       </c>
       <c r="D20">
-        <v>0.01026637765204266</v>
+        <v>0.01336231052303737</v>
       </c>
       <c r="E20">
-        <v>0.0002517684368928247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02462635263910591</v>
+      </c>
+      <c r="F20">
+        <v>-0.002187698798349336</v>
+      </c>
+      <c r="G20">
+        <v>-0.05492642762717659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01499458797192255</v>
+        <v>-0.01401992383499548</v>
       </c>
       <c r="C21">
-        <v>0.02487042997129115</v>
+        <v>-0.03380840783869728</v>
       </c>
       <c r="D21">
-        <v>0.02309308312075749</v>
+        <v>0.01709222844018013</v>
       </c>
       <c r="E21">
-        <v>-0.0200236553093399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03341000369525238</v>
+      </c>
+      <c r="F21">
+        <v>0.00296388445573195</v>
+      </c>
+      <c r="G21">
+        <v>-0.0797726530043107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004485359690970742</v>
+        <v>-0.02676364387443532</v>
       </c>
       <c r="C24">
-        <v>0.001454762008633903</v>
+        <v>-0.04821728182352436</v>
       </c>
       <c r="D24">
-        <v>0.04340297835605079</v>
+        <v>0.007378867028929248</v>
       </c>
       <c r="E24">
-        <v>-0.001032008711019674</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.003757833251822388</v>
+      </c>
+      <c r="F24">
+        <v>0.01998305766146137</v>
+      </c>
+      <c r="G24">
+        <v>-0.04331356286636089</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0120512197138975</v>
+        <v>-0.04190311375141433</v>
       </c>
       <c r="C25">
-        <v>0.01765192923564372</v>
+        <v>-0.05494481267833324</v>
       </c>
       <c r="D25">
-        <v>0.04559261789340741</v>
+        <v>0.01129597848656391</v>
       </c>
       <c r="E25">
-        <v>-0.0002353974573880422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.004630579986278991</v>
+      </c>
+      <c r="F25">
+        <v>0.01222855316332078</v>
+      </c>
+      <c r="G25">
+        <v>-0.04765320648875604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.0231815752975445</v>
+        <v>-0.01418065051378323</v>
       </c>
       <c r="C26">
-        <v>0.01090121549633494</v>
+        <v>-0.008463874877982395</v>
       </c>
       <c r="D26">
-        <v>-0.005754666275241565</v>
+        <v>0.02339168325910031</v>
       </c>
       <c r="E26">
-        <v>-0.009047249294010226</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.003085087915303493</v>
+      </c>
+      <c r="F26">
+        <v>-0.003619713238772331</v>
+      </c>
+      <c r="G26">
+        <v>-0.04376294720047114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04306137669052729</v>
+        <v>-0.1151594805662629</v>
       </c>
       <c r="C28">
-        <v>0.2362184455783548</v>
+        <v>0.2341719287445245</v>
       </c>
       <c r="D28">
-        <v>-0.1634079613252579</v>
+        <v>-0.008773087052006835</v>
       </c>
       <c r="E28">
-        <v>-0.02320486826533072</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.001866208272163946</v>
+      </c>
+      <c r="F28">
+        <v>-0.01765050122358524</v>
+      </c>
+      <c r="G28">
+        <v>-0.06426482645229568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008297245358974432</v>
+        <v>-0.01200684793552996</v>
       </c>
       <c r="C29">
-        <v>0.01851807780360541</v>
+        <v>-0.0193968873560128</v>
       </c>
       <c r="D29">
-        <v>0.01155712648574926</v>
+        <v>0.007437434818475428</v>
       </c>
       <c r="E29">
-        <v>-0.008972460180866003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.007385216382514194</v>
+      </c>
+      <c r="F29">
+        <v>-0.01349610565080567</v>
+      </c>
+      <c r="G29">
+        <v>-0.04706187883096997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.0236895670857186</v>
+        <v>-0.04709914830158751</v>
       </c>
       <c r="C30">
-        <v>0.005928608894624605</v>
+        <v>-0.06231655835086067</v>
       </c>
       <c r="D30">
-        <v>0.06209947756780462</v>
+        <v>0.02795303505732516</v>
       </c>
       <c r="E30">
-        <v>0.05461367092697963</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04516716942398408</v>
+      </c>
+      <c r="F30">
+        <v>0.0527135600854952</v>
+      </c>
+      <c r="G30">
+        <v>-0.03313853066109098</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.009563106576791011</v>
+        <v>-0.05186183697471133</v>
       </c>
       <c r="C31">
-        <v>0.04186670543814024</v>
+        <v>-0.03262002096876761</v>
       </c>
       <c r="D31">
-        <v>0.04387159219751626</v>
+        <v>0.003145959625570469</v>
       </c>
       <c r="E31">
-        <v>-0.01225491437831325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008146286842752233</v>
+      </c>
+      <c r="F31">
+        <v>-0.03659835556693225</v>
+      </c>
+      <c r="G31">
+        <v>-0.04763426511084441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006039831841456838</v>
+        <v>0.004682224320916674</v>
       </c>
       <c r="C32">
-        <v>0.01920135185207735</v>
+        <v>-0.02730963211843269</v>
       </c>
       <c r="D32">
-        <v>-0.001574563571973755</v>
+        <v>-0.003714758235550281</v>
       </c>
       <c r="E32">
-        <v>-0.03392117361762313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01655851151165732</v>
+      </c>
+      <c r="F32">
+        <v>0.04575782600077681</v>
+      </c>
+      <c r="G32">
+        <v>-0.06964518001231856</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01392077157447467</v>
+        <v>-0.02795931967502373</v>
       </c>
       <c r="C33">
-        <v>0.02656796680787766</v>
+        <v>-0.0454534354765163</v>
       </c>
       <c r="D33">
-        <v>0.02290846736549151</v>
+        <v>0.01485377367136814</v>
       </c>
       <c r="E33">
-        <v>0.0225378725424517</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02806775798635576</v>
+      </c>
+      <c r="F33">
+        <v>0.0230046281856858</v>
+      </c>
+      <c r="G33">
+        <v>-0.06152446829319952</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003957008236134788</v>
+        <v>-0.04052239020446711</v>
       </c>
       <c r="C34">
-        <v>0.01961168673309365</v>
+        <v>-0.05668681184351273</v>
       </c>
       <c r="D34">
-        <v>0.04800792789859195</v>
+        <v>-0.004562229688043788</v>
       </c>
       <c r="E34">
-        <v>-0.007329901730878626</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.003853994942011482</v>
+      </c>
+      <c r="F34">
+        <v>0.02374891626774957</v>
+      </c>
+      <c r="G34">
+        <v>-0.0487149884705909</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0132939160817718</v>
+        <v>-0.01370583372622658</v>
       </c>
       <c r="C36">
-        <v>0.02227817441392364</v>
+        <v>-0.008836505303032484</v>
       </c>
       <c r="D36">
-        <v>0.004613067112035863</v>
+        <v>0.01163538201461318</v>
       </c>
       <c r="E36">
-        <v>-0.003499845291765071</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0009753117689879985</v>
+      </c>
+      <c r="F36">
+        <v>-0.005083514664755077</v>
+      </c>
+      <c r="G36">
+        <v>-0.03931550702299653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.003166187044754124</v>
+        <v>-0.0322109959821501</v>
       </c>
       <c r="C38">
-        <v>0.0364568787990187</v>
+        <v>-0.0274280196951802</v>
       </c>
       <c r="D38">
-        <v>0.03311416539354248</v>
+        <v>-0.007532484911180132</v>
       </c>
       <c r="E38">
-        <v>-0.003224318546170034</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.00367268112619996</v>
+      </c>
+      <c r="F38">
+        <v>-0.01111436117546262</v>
+      </c>
+      <c r="G38">
+        <v>-0.04601968357235931</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005128523549462902</v>
+        <v>-0.03336468063253108</v>
       </c>
       <c r="C39">
-        <v>-0.01658244879347616</v>
+        <v>-0.08090802861598655</v>
       </c>
       <c r="D39">
-        <v>0.09062590641228403</v>
+        <v>0.01239952981775345</v>
       </c>
       <c r="E39">
-        <v>0.007923782689241737</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02254111043995487</v>
+      </c>
+      <c r="F39">
+        <v>0.03203533904673377</v>
+      </c>
+      <c r="G39">
+        <v>-0.04306312927923871</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01275629073751078</v>
+        <v>-0.01931726663525622</v>
       </c>
       <c r="C40">
-        <v>0.02398114177869795</v>
+        <v>-0.03079221553952769</v>
       </c>
       <c r="D40">
-        <v>0.03063162253708227</v>
+        <v>0.01344348633048028</v>
       </c>
       <c r="E40">
-        <v>0.002057515263552187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01978586650699824</v>
+      </c>
+      <c r="F40">
+        <v>0.01352365332107214</v>
+      </c>
+      <c r="G40">
+        <v>-0.04303961787819468</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006311055236966945</v>
+        <v>-0.01144607393214018</v>
       </c>
       <c r="C41">
-        <v>0.02153374821109451</v>
+        <v>-0.0002488229871385957</v>
       </c>
       <c r="D41">
-        <v>-0.008236143406984014</v>
+        <v>0.00382595811990017</v>
       </c>
       <c r="E41">
-        <v>-0.003446101306188408</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001953171406740975</v>
+      </c>
+      <c r="F41">
+        <v>-0.00706745015870617</v>
+      </c>
+      <c r="G41">
+        <v>-0.02713116032002335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09311335043915071</v>
+        <v>-0.01423558178482509</v>
       </c>
       <c r="C42">
-        <v>-0.004666818189291967</v>
+        <v>-0.0397059684963542</v>
       </c>
       <c r="D42">
-        <v>0.2633875517969753</v>
+        <v>0.09422567801851782</v>
       </c>
       <c r="E42">
-        <v>0.2931765828104263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.03337694211978184</v>
+      </c>
+      <c r="F42">
+        <v>-0.04018534114647351</v>
+      </c>
+      <c r="G42">
+        <v>0.1723937605822554</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007795584467665756</v>
+        <v>-0.0291291782669835</v>
       </c>
       <c r="C43">
-        <v>0.02590255674242345</v>
+        <v>-0.01071128857293695</v>
       </c>
       <c r="D43">
-        <v>-0.01219534729897472</v>
+        <v>0.005002956808620071</v>
       </c>
       <c r="E43">
-        <v>0.003417380537655633</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.009273805107387885</v>
+      </c>
+      <c r="F43">
+        <v>-0.0002519012642473175</v>
+      </c>
+      <c r="G43">
+        <v>-0.04059730425677333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.00347098592054239</v>
+        <v>-0.01768585280277621</v>
       </c>
       <c r="C44">
-        <v>0.007678066786329019</v>
+        <v>-0.04819356993478107</v>
       </c>
       <c r="D44">
-        <v>0.027262026665206</v>
+        <v>0.006047381301098804</v>
       </c>
       <c r="E44">
-        <v>-0.001407433921348533</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01602466821484185</v>
+      </c>
+      <c r="F44">
+        <v>-0.0001169736245118834</v>
+      </c>
+      <c r="G44">
+        <v>-0.05831383289428459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01122024203018372</v>
+        <v>-0.007129528455972295</v>
       </c>
       <c r="C46">
-        <v>0.01634725954652855</v>
+        <v>-0.01649120003764236</v>
       </c>
       <c r="D46">
-        <v>0.01287462804160535</v>
+        <v>0.0114929801039519</v>
       </c>
       <c r="E46">
-        <v>-0.003102483629314468</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.005842565973684296</v>
+      </c>
+      <c r="F46">
+        <v>-0.01653683956080713</v>
+      </c>
+      <c r="G46">
+        <v>-0.04479716880924123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004079280978620789</v>
+        <v>-0.0769142695051466</v>
       </c>
       <c r="C47">
-        <v>0.05455205582669171</v>
+        <v>-0.06344688006811597</v>
       </c>
       <c r="D47">
-        <v>0.0590760936385829</v>
+        <v>-0.005357664307899569</v>
       </c>
       <c r="E47">
-        <v>-0.001574823001828066</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01214926828012224</v>
+      </c>
+      <c r="F47">
+        <v>-0.05524445033514799</v>
+      </c>
+      <c r="G47">
+        <v>-0.04223383353494968</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004107976257105218</v>
+        <v>-0.02111717012311161</v>
       </c>
       <c r="C48">
-        <v>0.02731233946011007</v>
+        <v>-0.009686074988166062</v>
       </c>
       <c r="D48">
-        <v>0.01227764641834814</v>
+        <v>0.0007538291793891458</v>
       </c>
       <c r="E48">
-        <v>-0.004378021130796844</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.004694827361708712</v>
+      </c>
+      <c r="F48">
+        <v>-0.01813528294666448</v>
+      </c>
+      <c r="G48">
+        <v>-0.04465730035773216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.005960995289893225</v>
+        <v>-0.07950660689520248</v>
       </c>
       <c r="C50">
-        <v>0.05343059326060313</v>
+        <v>-0.0647337826734117</v>
       </c>
       <c r="D50">
-        <v>0.06252930464757279</v>
+        <v>-0.003606302034044167</v>
       </c>
       <c r="E50">
-        <v>-0.03282099442769179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01607451436870674</v>
+      </c>
+      <c r="F50">
+        <v>-0.05768588072393872</v>
+      </c>
+      <c r="G50">
+        <v>-0.06859487724256365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007562511201006169</v>
+        <v>-0.01320879783798804</v>
       </c>
       <c r="C51">
-        <v>0.01795752999906459</v>
+        <v>-0.03118775407533194</v>
       </c>
       <c r="D51">
-        <v>-0.001829617363687657</v>
+        <v>0.009828399683229875</v>
       </c>
       <c r="E51">
-        <v>-0.004270186885878859</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.0137647008442891</v>
+      </c>
+      <c r="F51">
+        <v>0.03070070633137937</v>
+      </c>
+      <c r="G51">
+        <v>-0.06730957330317074</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.007101559849345835</v>
+        <v>-0.08469928345048082</v>
       </c>
       <c r="C53">
-        <v>0.06477053472437307</v>
+        <v>-0.07669978058423291</v>
       </c>
       <c r="D53">
-        <v>0.1204687231760149</v>
+        <v>-0.004898140774435064</v>
       </c>
       <c r="E53">
-        <v>-0.01058747139549007</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03577882854763107</v>
+      </c>
+      <c r="F53">
+        <v>-0.05943487271722731</v>
+      </c>
+      <c r="G53">
+        <v>-0.03924536499835468</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001268880965405956</v>
+        <v>-0.03298522954640712</v>
       </c>
       <c r="C54">
-        <v>0.03565629946150922</v>
+        <v>-0.01153535120230233</v>
       </c>
       <c r="D54">
-        <v>-0.006588408105554563</v>
+        <v>-0.002889356184485761</v>
       </c>
       <c r="E54">
-        <v>-0.01164166956083653</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.001643906247327839</v>
+      </c>
+      <c r="F54">
+        <v>-0.005386988458702219</v>
+      </c>
+      <c r="G54">
+        <v>-0.04962828644013517</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003725715321757053</v>
+        <v>-0.07360435234341443</v>
       </c>
       <c r="C55">
-        <v>0.04677363152256207</v>
+        <v>-0.06897066761859545</v>
       </c>
       <c r="D55">
-        <v>0.1033447422496904</v>
+        <v>-0.005390373669794056</v>
       </c>
       <c r="E55">
-        <v>0.002323929222641579</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02741132818831698</v>
+      </c>
+      <c r="F55">
+        <v>-0.05828862341023421</v>
+      </c>
+      <c r="G55">
+        <v>-0.02253195338998012</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.006304670058636007</v>
+        <v>-0.1441808982353343</v>
       </c>
       <c r="C56">
-        <v>0.09192777568904283</v>
+        <v>-0.1021357010198147</v>
       </c>
       <c r="D56">
-        <v>0.1522781019456058</v>
+        <v>-0.01312847870530333</v>
       </c>
       <c r="E56">
-        <v>-0.00121943657234504</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04031356570749998</v>
+      </c>
+      <c r="F56">
+        <v>-0.08068402037197056</v>
+      </c>
+      <c r="G56">
+        <v>-0.008391150757971599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02426767581245144</v>
+        <v>-0.009277588425918491</v>
       </c>
       <c r="C57">
-        <v>0.01670598502055675</v>
+        <v>-0.009036128012714986</v>
       </c>
       <c r="D57">
-        <v>0.04287470490610374</v>
+        <v>0.0236060009751636</v>
       </c>
       <c r="E57">
-        <v>0.003122029837806283</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02759172990560508</v>
+      </c>
+      <c r="F57">
+        <v>0.01123852313383873</v>
+      </c>
+      <c r="G57">
+        <v>-0.02360942953243135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01498694335219976</v>
+        <v>-0.08204872488357302</v>
       </c>
       <c r="C58">
-        <v>0.09780345540807119</v>
+        <v>-0.02872038220862525</v>
       </c>
       <c r="D58">
-        <v>0.09659943536074789</v>
+        <v>0.01771042844367048</v>
       </c>
       <c r="E58">
-        <v>0.204343863010841</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9386821463185878</v>
+      </c>
+      <c r="F58">
+        <v>-0.2489059440233977</v>
+      </c>
+      <c r="G58">
+        <v>0.026528581831052</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.04019470967060597</v>
+        <v>-0.1567058086923002</v>
       </c>
       <c r="C59">
-        <v>0.2524039705778249</v>
+        <v>0.2134374968648406</v>
       </c>
       <c r="D59">
-        <v>-0.1644626611899166</v>
+        <v>-0.01540509552019147</v>
       </c>
       <c r="E59">
-        <v>-0.00050223709564443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.004777779593340861</v>
+      </c>
+      <c r="F59">
+        <v>0.007074539098054137</v>
+      </c>
+      <c r="G59">
+        <v>-0.02178813058500769</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04160739566440579</v>
+        <v>-0.2859094644322474</v>
       </c>
       <c r="C60">
-        <v>0.1641591269268849</v>
+        <v>-0.09803290096322961</v>
       </c>
       <c r="D60">
-        <v>0.0772888819528213</v>
+        <v>0.01323909777533859</v>
       </c>
       <c r="E60">
-        <v>0.03454636118637284</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.003093643746213718</v>
+      </c>
+      <c r="F60">
+        <v>0.340040925992822</v>
+      </c>
+      <c r="G60">
+        <v>0.09390581083067778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003572031019984958</v>
+        <v>-0.03668025971267533</v>
       </c>
       <c r="C61">
-        <v>0.008299772719617717</v>
+        <v>-0.0646878651390662</v>
       </c>
       <c r="D61">
-        <v>0.06462844256762396</v>
+        <v>0.005697117329299148</v>
       </c>
       <c r="E61">
-        <v>0.002342369577331022</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01170193896335619</v>
+      </c>
+      <c r="F61">
+        <v>0.02085974998399145</v>
+      </c>
+      <c r="G61">
+        <v>-0.04024945450374753</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007759485514430429</v>
+        <v>-0.01454684164228467</v>
       </c>
       <c r="C63">
-        <v>0.009320716717359265</v>
+        <v>-0.02791861621727205</v>
       </c>
       <c r="D63">
-        <v>0.008970394414995921</v>
+        <v>0.007904441983576658</v>
       </c>
       <c r="E63">
-        <v>-0.008294233455873903</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.004399297059772549</v>
+      </c>
+      <c r="F63">
+        <v>-0.01583841146721174</v>
+      </c>
+      <c r="G63">
+        <v>-0.04881109719474132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.008614682647773975</v>
+        <v>-0.05225965358355462</v>
       </c>
       <c r="C64">
-        <v>0.03095885477172247</v>
+        <v>-0.04317626820431153</v>
       </c>
       <c r="D64">
-        <v>0.06593020318920004</v>
+        <v>0.005531062419167495</v>
       </c>
       <c r="E64">
-        <v>0.01275881825894709</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.006175608561863689</v>
+      </c>
+      <c r="F64">
+        <v>0.005505530720610239</v>
+      </c>
+      <c r="G64">
+        <v>-0.03301335379599525</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01678632848950203</v>
+        <v>-0.08397664033379626</v>
       </c>
       <c r="C65">
-        <v>0.00932495690572567</v>
+        <v>-0.05633206868379484</v>
       </c>
       <c r="D65">
-        <v>0.1024770686955201</v>
+        <v>0.01499763008824622</v>
       </c>
       <c r="E65">
-        <v>-0.008694815145725747</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01813787435602132</v>
+      </c>
+      <c r="F65">
+        <v>0.02883927872637718</v>
+      </c>
+      <c r="G65">
+        <v>-0.01570121760073802</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004908683567720855</v>
+        <v>-0.05301293568708108</v>
       </c>
       <c r="C66">
-        <v>-0.01072566366666462</v>
+        <v>-0.1119128046626431</v>
       </c>
       <c r="D66">
-        <v>0.1184844660449107</v>
+        <v>0.01214009861739878</v>
       </c>
       <c r="E66">
-        <v>0.02031634610783908</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02763967074598372</v>
+      </c>
+      <c r="F66">
+        <v>0.03730199299625402</v>
+      </c>
+      <c r="G66">
+        <v>-0.03918944757463247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.003358075641388859</v>
+        <v>-0.05418957492215538</v>
       </c>
       <c r="C67">
-        <v>0.05706539064500785</v>
+        <v>-0.03117850665557878</v>
       </c>
       <c r="D67">
-        <v>0.03848989514693633</v>
+        <v>-0.005550436556307829</v>
       </c>
       <c r="E67">
-        <v>-0.002990830932537356</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.002698913744984609</v>
+      </c>
+      <c r="F67">
+        <v>-0.01251772601553414</v>
+      </c>
+      <c r="G67">
+        <v>-0.04321071021813986</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05747849127400096</v>
+        <v>-0.1385712710599623</v>
       </c>
       <c r="C68">
-        <v>0.2301910265221232</v>
+        <v>0.2736569236130452</v>
       </c>
       <c r="D68">
-        <v>-0.1565424013504</v>
+        <v>0.00265785458146165</v>
       </c>
       <c r="E68">
-        <v>0.005127778973284765</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.004544762983328717</v>
+      </c>
+      <c r="F68">
+        <v>-0.03060763567399313</v>
+      </c>
+      <c r="G68">
+        <v>-0.02281213304967734</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.001161040765652753</v>
+        <v>-0.07914485105944129</v>
       </c>
       <c r="C69">
-        <v>0.04190724048004001</v>
+        <v>-0.06679347601324194</v>
       </c>
       <c r="D69">
-        <v>0.06199237503275003</v>
+        <v>-0.009230831357597478</v>
       </c>
       <c r="E69">
-        <v>-0.00254939883560381</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02940878516855426</v>
+      </c>
+      <c r="F69">
+        <v>-0.03851408598560258</v>
+      </c>
+      <c r="G69">
+        <v>-0.04626126617350632</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04292539042343586</v>
+        <v>-0.1306539154933812</v>
       </c>
       <c r="C71">
-        <v>0.2043002052969933</v>
+        <v>0.2365668921339389</v>
       </c>
       <c r="D71">
-        <v>-0.1423558779362409</v>
+        <v>-0.00617412384358633</v>
       </c>
       <c r="E71">
-        <v>-0.007145493895346878</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02252743250531886</v>
+      </c>
+      <c r="F71">
+        <v>-0.008295943849328153</v>
+      </c>
+      <c r="G71">
+        <v>-0.03741543074082247</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0001317110792414108</v>
+        <v>-0.0866868651382029</v>
       </c>
       <c r="C72">
-        <v>0.04860374328626103</v>
+        <v>-0.07278888117351488</v>
       </c>
       <c r="D72">
-        <v>0.1353271737544392</v>
+        <v>-0.007806637934448078</v>
       </c>
       <c r="E72">
-        <v>0.01668397765398846</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.003371714241795339</v>
+      </c>
+      <c r="F72">
+        <v>0.04528581146908717</v>
+      </c>
+      <c r="G72">
+        <v>-0.01986686552604092</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05526499931418819</v>
+        <v>-0.3998167595719311</v>
       </c>
       <c r="C73">
-        <v>0.1936166657721352</v>
+        <v>-0.1144601317014628</v>
       </c>
       <c r="D73">
-        <v>0.171853103419184</v>
+        <v>0.0214813200718984</v>
       </c>
       <c r="E73">
-        <v>0.09196378563490258</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.0721540972745472</v>
+      </c>
+      <c r="F73">
+        <v>0.5533984783455064</v>
+      </c>
+      <c r="G73">
+        <v>0.1686721756809811</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.00325265793651228</v>
+        <v>-0.1135550439182558</v>
       </c>
       <c r="C74">
-        <v>0.08093179055584818</v>
+        <v>-0.1126922932046315</v>
       </c>
       <c r="D74">
-        <v>0.1612941358341827</v>
+        <v>-0.01010671336184286</v>
       </c>
       <c r="E74">
-        <v>0.004611045269548185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.0178639076758415</v>
+      </c>
+      <c r="F74">
+        <v>-0.07557020572449545</v>
+      </c>
+      <c r="G74">
+        <v>-0.04793795048712794</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01196547724418142</v>
+        <v>-0.249414548866264</v>
       </c>
       <c r="C75">
-        <v>0.1875078656216503</v>
+        <v>-0.1458997797040221</v>
       </c>
       <c r="D75">
-        <v>0.2853799963239003</v>
+        <v>-0.03051593799033694</v>
       </c>
       <c r="E75">
-        <v>0.01503026364854263</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.06034479793330907</v>
+      </c>
+      <c r="F75">
+        <v>-0.1861532232091005</v>
+      </c>
+      <c r="G75">
+        <v>0.04406854045152073</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-5.650692649964605e-05</v>
+        <v>-0.1286549104571033</v>
       </c>
       <c r="C76">
-        <v>0.1180831698027716</v>
+        <v>-0.1124689182184164</v>
       </c>
       <c r="D76">
-        <v>0.2336732199742752</v>
+        <v>-0.02129753358676178</v>
       </c>
       <c r="E76">
-        <v>-0.01540460834117032</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.05057838984387949</v>
+      </c>
+      <c r="F76">
+        <v>-0.1205799356472336</v>
+      </c>
+      <c r="G76">
+        <v>-0.02240287438366373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01257350311036476</v>
+        <v>-0.06625219681985582</v>
       </c>
       <c r="C77">
-        <v>0.02003355206972949</v>
+        <v>-0.05977907580476531</v>
       </c>
       <c r="D77">
-        <v>0.05150169392504473</v>
+        <v>0.01227032428018735</v>
       </c>
       <c r="E77">
-        <v>0.00819176291740269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04899918595731624</v>
+      </c>
+      <c r="F77">
+        <v>0.009254602634620385</v>
+      </c>
+      <c r="G77">
+        <v>-0.05178463952193725</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004953573167066464</v>
+        <v>-0.04348307297884805</v>
       </c>
       <c r="C78">
-        <v>0.0160256772780887</v>
+        <v>-0.05079278283460837</v>
       </c>
       <c r="D78">
-        <v>0.06363887608110338</v>
+        <v>0.005650622565502359</v>
       </c>
       <c r="E78">
-        <v>0.001018773658018873</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02106331972925807</v>
+      </c>
+      <c r="F78">
+        <v>0.03841308147460618</v>
+      </c>
+      <c r="G78">
+        <v>-0.04654910335620705</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01670951761773844</v>
+        <v>-0.05447620627540055</v>
       </c>
       <c r="C80">
-        <v>0.08288990845106307</v>
+        <v>-0.06334809282219002</v>
       </c>
       <c r="D80">
-        <v>0.1591042292714543</v>
+        <v>0.01267291634352022</v>
       </c>
       <c r="E80">
-        <v>-0.9093157525032149</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02991783530687548</v>
+      </c>
+      <c r="F80">
+        <v>0.02626581662135791</v>
+      </c>
+      <c r="G80">
+        <v>-0.8445910971477084</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.007953249995975109</v>
+        <v>-0.1449605316185295</v>
       </c>
       <c r="C81">
-        <v>0.1136744612296637</v>
+        <v>-0.08808342920928476</v>
       </c>
       <c r="D81">
-        <v>0.1717644763960523</v>
+        <v>-0.01589941149541041</v>
       </c>
       <c r="E81">
-        <v>-0.003774471092577398</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03628221523554318</v>
+      </c>
+      <c r="F81">
+        <v>-0.1265738969204776</v>
+      </c>
+      <c r="G81">
+        <v>-0.02094397390981998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1093618784302996</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05413382830833458</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.005981059257297484</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.07997005986540268</v>
+      </c>
+      <c r="F82">
+        <v>-0.01719866744801975</v>
+      </c>
+      <c r="G82">
+        <v>-0.02839801130542259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007431471976116819</v>
+        <v>-0.02963793129199059</v>
       </c>
       <c r="C83">
-        <v>0.02283655916450417</v>
+        <v>-0.02147929929929052</v>
       </c>
       <c r="D83">
-        <v>0.02321476000033279</v>
+        <v>0.006023419922736065</v>
       </c>
       <c r="E83">
-        <v>0.0008911596882794095</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02902723702550362</v>
+      </c>
+      <c r="F83">
+        <v>0.03556966752764194</v>
+      </c>
+      <c r="G83">
+        <v>-0.03402196696383003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01767426064524887</v>
+        <v>-0.2234237766534387</v>
       </c>
       <c r="C85">
-        <v>0.1456715242724124</v>
+        <v>-0.1418594850896348</v>
       </c>
       <c r="D85">
-        <v>0.2646287992113024</v>
+        <v>-0.01861530467714887</v>
       </c>
       <c r="E85">
-        <v>0.0204218135542902</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1005902144184486</v>
+      </c>
+      <c r="F85">
+        <v>-0.1495147078472552</v>
+      </c>
+      <c r="G85">
+        <v>0.07517069737027271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008220362929142057</v>
+        <v>-0.01633271041305412</v>
       </c>
       <c r="C86">
-        <v>0.02783343561206405</v>
+        <v>-0.02111223898396047</v>
       </c>
       <c r="D86">
-        <v>0.01211044387372087</v>
+        <v>0.01104919312675305</v>
       </c>
       <c r="E86">
-        <v>0.02738286864038121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03907685202673091</v>
+      </c>
+      <c r="F86">
+        <v>0.04710810071911289</v>
+      </c>
+      <c r="G86">
+        <v>-0.08408032587286825</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.008020781630519492</v>
+        <v>-0.0202532504664529</v>
       </c>
       <c r="C87">
-        <v>0.01431141393677407</v>
+        <v>-0.02428994675266506</v>
       </c>
       <c r="D87">
-        <v>0.04337071557465761</v>
+        <v>0.01111290302077499</v>
       </c>
       <c r="E87">
-        <v>0.006037805424822518</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.0833856874369468</v>
+      </c>
+      <c r="F87">
+        <v>0.02478161127065306</v>
+      </c>
+      <c r="G87">
+        <v>-0.0614022528617638</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02796112873974704</v>
+        <v>-0.09219291119124808</v>
       </c>
       <c r="C88">
-        <v>0.03389856750153952</v>
+        <v>-0.06086891157406641</v>
       </c>
       <c r="D88">
-        <v>0.03813671988256096</v>
+        <v>0.02250144005812684</v>
       </c>
       <c r="E88">
-        <v>-0.0003812942748329187</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01537469768967845</v>
+      </c>
+      <c r="F88">
+        <v>-0.02096563975650453</v>
+      </c>
+      <c r="G88">
+        <v>-0.03930623774770136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.08000486326220581</v>
+        <v>-0.2142379642382181</v>
       </c>
       <c r="C89">
-        <v>0.3661392110153687</v>
+        <v>0.3726510453242786</v>
       </c>
       <c r="D89">
-        <v>-0.2373786340024511</v>
+        <v>-0.005228442534886066</v>
       </c>
       <c r="E89">
-        <v>0.006601232965595548</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02313200299585258</v>
+      </c>
+      <c r="F89">
+        <v>-0.0219387302659193</v>
+      </c>
+      <c r="G89">
+        <v>-0.03544170572963633</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06139685165229169</v>
+        <v>-0.1932549247299155</v>
       </c>
       <c r="C90">
-        <v>0.2838794520332739</v>
+        <v>0.3331156954845896</v>
       </c>
       <c r="D90">
-        <v>-0.2161445288864981</v>
+        <v>-0.009418274991600074</v>
       </c>
       <c r="E90">
-        <v>0.01506107549625966</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.02249630385656422</v>
+      </c>
+      <c r="F90">
+        <v>-0.04159921005667508</v>
+      </c>
+      <c r="G90">
+        <v>-0.004126833530864587</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.007832280055859965</v>
+        <v>-0.1973671228781626</v>
       </c>
       <c r="C91">
-        <v>0.1619732201214738</v>
+        <v>-0.1329745429795069</v>
       </c>
       <c r="D91">
-        <v>0.2412009703308685</v>
+        <v>-0.02433739304224101</v>
       </c>
       <c r="E91">
-        <v>0.0004243316093946421</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07639592503916554</v>
+      </c>
+      <c r="F91">
+        <v>-0.1586953252241512</v>
+      </c>
+      <c r="G91">
+        <v>-0.002628662637429889</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02802560764503903</v>
+        <v>-0.1983624127779186</v>
       </c>
       <c r="C92">
-        <v>0.3101747680965536</v>
+        <v>0.269107134202583</v>
       </c>
       <c r="D92">
-        <v>-0.09340180886449592</v>
+        <v>-0.04543484175574165</v>
       </c>
       <c r="E92">
-        <v>-0.00253284243814241</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.003481356315551809</v>
+      </c>
+      <c r="F92">
+        <v>-0.06201566653546765</v>
+      </c>
+      <c r="G92">
+        <v>-0.07944595293068669</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05991648721385155</v>
+        <v>-0.2210180649518838</v>
       </c>
       <c r="C93">
-        <v>0.3139755564837381</v>
+        <v>0.3283399342143251</v>
       </c>
       <c r="D93">
-        <v>-0.2084453631876137</v>
+        <v>-0.01626315323470176</v>
       </c>
       <c r="E93">
-        <v>0.0304449431365085</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.009830797114105644</v>
+      </c>
+      <c r="F93">
+        <v>-0.03535646913695373</v>
+      </c>
+      <c r="G93">
+        <v>-0.005150093776486435</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03077090425957174</v>
+        <v>-0.3074390412925598</v>
       </c>
       <c r="C94">
-        <v>0.1894310037456056</v>
+        <v>-0.1719029404125382</v>
       </c>
       <c r="D94">
-        <v>0.2475966456852174</v>
+        <v>-0.01671762897177926</v>
       </c>
       <c r="E94">
-        <v>0.03863219463724889</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1567791924043749</v>
+      </c>
+      <c r="F94">
+        <v>-0.4882663917067442</v>
+      </c>
+      <c r="G94">
+        <v>0.193020492175546</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004263265497542687</v>
+        <v>-0.09154439333131403</v>
       </c>
       <c r="C95">
-        <v>0.04068405463696394</v>
+        <v>-0.08872791640567304</v>
       </c>
       <c r="D95">
-        <v>0.09596507054998994</v>
+        <v>-0.006506921419960713</v>
       </c>
       <c r="E95">
-        <v>0.1084240611849906</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07453404470247901</v>
+      </c>
+      <c r="F95">
+        <v>0.1937693359181257</v>
+      </c>
+      <c r="G95">
+        <v>0.07850151701513794</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01586448652290537</v>
+        <v>-0.2002515409273536</v>
       </c>
       <c r="C98">
-        <v>0.1693020535752297</v>
+        <v>-0.04415278932254505</v>
       </c>
       <c r="D98">
-        <v>0.1207541908510805</v>
+        <v>-0.01250001120469355</v>
       </c>
       <c r="E98">
-        <v>0.05557216187049036</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06888167331712247</v>
+      </c>
+      <c r="F98">
+        <v>0.2427579504487506</v>
+      </c>
+      <c r="G98">
+        <v>0.02754822272202242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008080255236507778</v>
+        <v>-0.01180183910719885</v>
       </c>
       <c r="C101">
-        <v>0.01819840689621068</v>
+        <v>-0.01935475113779433</v>
       </c>
       <c r="D101">
-        <v>0.01129812167896948</v>
+        <v>0.00726155049253934</v>
       </c>
       <c r="E101">
-        <v>-0.009412125552486026</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.007638214270236276</v>
+      </c>
+      <c r="F101">
+        <v>-0.01454787936626363</v>
+      </c>
+      <c r="G101">
+        <v>-0.04687964425495555</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.0182233216578026</v>
+        <v>-0.120553922941703</v>
       </c>
       <c r="C102">
-        <v>0.08368567503587673</v>
+        <v>-0.08041760571781764</v>
       </c>
       <c r="D102">
-        <v>0.1254292344862206</v>
+        <v>0.0009275649499984693</v>
       </c>
       <c r="E102">
-        <v>0.006455725003141038</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03381166136769914</v>
+      </c>
+      <c r="F102">
+        <v>-0.04149975646634656</v>
+      </c>
+      <c r="G102">
+        <v>0.002456782756770665</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001577798982635191</v>
+        <v>-0.00323120672014977</v>
       </c>
       <c r="C103">
-        <v>0.009552724456916576</v>
+        <v>-0.004433164997498259</v>
       </c>
       <c r="D103">
-        <v>0.02513338069635167</v>
+        <v>0.0001498777186508163</v>
       </c>
       <c r="E103">
-        <v>-0.01438212980701055</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.002100762793633852</v>
+      </c>
+      <c r="F103">
+        <v>-0.00842198263727152</v>
+      </c>
+      <c r="G103">
+        <v>-0.01489297999225156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9759087583616625</v>
+        <v>-0.02623300252627579</v>
       </c>
       <c r="C104">
-        <v>-0.1716820056907117</v>
+        <v>0.03882068964042663</v>
       </c>
       <c r="D104">
-        <v>-0.005880848499420386</v>
+        <v>0.9872402568318766</v>
       </c>
       <c r="E104">
-        <v>-0.02649358157971836</v>
+        <v>-0.04311086865866684</v>
+      </c>
+      <c r="F104">
+        <v>-0.04371093546667283</v>
+      </c>
+      <c r="G104">
+        <v>0.01260793031565537</v>
       </c>
     </row>
   </sheetData>
